--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162410.0405516603</v>
+        <v>-166549.7469656167</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11781976.21772262</v>
+        <v>11779026.32077052</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>331.6431744020286</v>
       </c>
       <c r="C2" t="n">
-        <v>176.4007051000622</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>9.110409776857153</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>98.68199903936244</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>232.4935410711778</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>98.07163224926515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>300.0228663752864</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>92.30466406313822</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>34.3724051023188</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1026,7 +1026,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>118.8243090014958</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>115.5563505559395</v>
       </c>
       <c r="X7" t="n">
-        <v>66.0314987001008</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>197.8422002085939</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1181,22 +1181,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>267.4533054742782</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>129.6022067968811</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>44.85110237228393</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -1376,16 +1376,16 @@
         <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>117.8545206798376</v>
+        <v>245.680661209674</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>65.87543334372783</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866634</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>69.53843205077224</v>
       </c>
       <c r="C13" t="n">
         <v>97.42475435993869</v>
@@ -1543,10 +1543,10 @@
         <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>80.75075480050937</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
@@ -1585,7 +1585,7 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>54.22076354052847</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>42.9131346892911</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>59.28473649829535</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.89788305079017</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681701</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2804,13 +2804,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.9624712641433</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404343</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419572</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007175</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035416</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219388</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507299</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484026</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.5802388872324</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380444</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497637</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943229</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049596</v>
@@ -3004,13 +3004,13 @@
         <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542117</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820275</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345497</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852508</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838863</v>
+        <v>24.17382596574963</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828875</v>
+        <v>52.06849973564975</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161063</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696762</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034456</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813242</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162025</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885337</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431707</v>
+        <v>70.57601873167808</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459948</v>
+        <v>55.72314698196048</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643921</v>
+        <v>41.29686219380021</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931832</v>
+        <v>41.22330424667932</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908559</v>
+        <v>42.97275566644659</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147772</v>
+        <v>53.79159358883872</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804976</v>
+        <v>41.14384575541077</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922169</v>
+        <v>18.9835613365827</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367761</v>
+        <v>9.882059701038614</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920493</v>
+        <v>88.00800320656593</v>
       </c>
       <c r="T34" t="n">
-        <v>127.025404013377</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273128</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947755</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714519</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>646.2381005835246</v>
+        <v>842.096262937951</v>
       </c>
       <c r="C2" t="n">
-        <v>468.0555701794214</v>
+        <v>448.9207614408816</v>
       </c>
       <c r="D2" t="n">
-        <v>468.0555701794214</v>
+        <v>63.47963265754935</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596586</v>
+        <v>63.47963265754935</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634767</v>
+        <v>50.62559822793116</v>
       </c>
       <c r="G2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150837</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N2" t="n">
-        <v>1826.595477606223</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606223</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737745</v>
+        <v>1908.64878275797</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737745</v>
+        <v>1908.64878275797</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737745</v>
+        <v>1908.64878275797</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.676160441264</v>
+        <v>1566.541973461489</v>
       </c>
       <c r="W2" t="n">
-        <v>1832.676160441264</v>
+        <v>1566.541973461489</v>
       </c>
       <c r="X2" t="n">
-        <v>1443.22355537432</v>
+        <v>1177.089368394546</v>
       </c>
       <c r="Y2" t="n">
-        <v>1046.732846294922</v>
+        <v>1177.089368394546</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813147</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414069</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628873</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>139.003097273775</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284331</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I3" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>438.0071130376309</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="M3" t="n">
-        <v>1423.897595591874</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591874</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182855</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2051.187139727363</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1874.203327926271</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U3" t="n">
-        <v>1664.140184604913</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V3" t="n">
-        <v>1441.60018297598</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W3" t="n">
-        <v>1211.482937109267</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="X3" t="n">
-        <v>1022.175859459279</v>
+        <v>887.3033373467688</v>
       </c>
       <c r="Y3" t="n">
-        <v>842.8616425347859</v>
+        <v>707.9891204222761</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1430.66188198322</v>
+        <v>522.900289928632</v>
       </c>
       <c r="C4" t="n">
-        <v>1430.66188198322</v>
+        <v>352.6951719946211</v>
       </c>
       <c r="D4" t="n">
-        <v>1430.66188198322</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E4" t="n">
-        <v>1430.66188198322</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196193</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196193</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196193</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196193</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196193</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306134</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179934</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518198</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549407</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591115</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367694</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737745</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>2050.881980370322</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>2050.881980370322</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>1815.162928538556</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>1529.724136780457</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V4" t="n">
-        <v>1529.724136780457</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W4" t="n">
-        <v>1529.724136780457</v>
+        <v>708.1083086199333</v>
       </c>
       <c r="X4" t="n">
-        <v>1529.724136780457</v>
+        <v>708.1083086199333</v>
       </c>
       <c r="Y4" t="n">
-        <v>1430.66188198322</v>
+        <v>708.1083086199333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.781755252921</v>
+        <v>980.4333798454861</v>
       </c>
       <c r="C5" t="n">
-        <v>1176.606253755851</v>
+        <v>587.2578783484167</v>
       </c>
       <c r="D5" t="n">
-        <v>1176.606253755851</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G5" t="n">
-        <v>43.4956593947549</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.4956593947549</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310448</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310448</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354843</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572946</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465275</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596797</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964318</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964318</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964318</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964318</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.276500964318</v>
+        <v>1777.418834636282</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.276500964318</v>
+        <v>1777.418834636282</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.276500964318</v>
+        <v>1380.928125556883</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>712.7726751562662</v>
+        <v>745.499863631303</v>
       </c>
       <c r="C6" t="n">
-        <v>562.1184447163585</v>
+        <v>594.8456331913952</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284331</v>
+        <v>90.8905007444268</v>
       </c>
       <c r="I6" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>438.0071130376309</v>
       </c>
       <c r="L6" t="n">
-        <v>156.6106416144823</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653841</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875476</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466457</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535678</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1895.910694988713</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U6" t="n">
-        <v>1685.847551667355</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V6" t="n">
-        <v>1463.307550038422</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W6" t="n">
-        <v>1233.190304171709</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="X6" t="n">
-        <v>1043.88322652172</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="Y6" t="n">
-        <v>864.5690095972276</v>
+        <v>897.2961980722644</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.4956593947549</v>
+        <v>369.0342994773762</v>
       </c>
       <c r="C7" t="n">
-        <v>43.4956593947549</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="D7" t="n">
-        <v>43.4956593947549</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="E7" t="n">
-        <v>43.4956593947549</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="G7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>659.5038901782084</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V7" t="n">
-        <v>393.5245449990326</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W7" t="n">
-        <v>110.1941429302103</v>
+        <v>826.2266828777498</v>
       </c>
       <c r="X7" t="n">
-        <v>43.4956593947549</v>
+        <v>592.1463606607329</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.4956593947549</v>
+        <v>369.0342994773762</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>924.8850248408685</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="C8" t="n">
-        <v>531.7095233437991</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D8" t="n">
-        <v>531.7095233437991</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4805,16 +4805,16 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1595.534624566688</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1595.534624566688</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1325.379770552265</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1325.379770552265</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7856656383638</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7856656383638</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7856656383638</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7856656383638</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
         <v>210.7856656383638</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>539.420211517574</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>494.1160677071862</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>210.7856656383638</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7856656383638</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7856656383638</v>
+        <v>665.4295905742738</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.01579512446</v>
+        <v>1684.000063606712</v>
       </c>
       <c r="C11" t="n">
-        <v>813.6365687735845</v>
+        <v>1362.620837255836</v>
       </c>
       <c r="D11" t="n">
-        <v>499.9917151364461</v>
+        <v>1048.975983618697</v>
       </c>
       <c r="E11" t="n">
-        <v>499.9917151364461</v>
+        <v>718.1887338814358</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527722</v>
+        <v>470.0264498312597</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2655.049298025869</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2337.39296810512</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>2012.698534171915</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>318.2838994630213</v>
+        <v>340.668025138605</v>
       </c>
       <c r="C13" t="n">
-        <v>219.8750566752043</v>
+        <v>242.2591823507881</v>
       </c>
       <c r="D13" t="n">
-        <v>219.8750566752043</v>
+        <v>242.2591823507881</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752043</v>
+        <v>242.2591823507881</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>242.2591823507881</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1415.166222824094</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1251.243446138522</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1037.600929526617</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V13" t="n">
-        <v>843.4178594936354</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="W13" t="n">
-        <v>631.8837325710069</v>
+        <v>724.508698701916</v>
       </c>
       <c r="X13" t="n">
-        <v>469.599685500184</v>
+        <v>562.2246516310931</v>
       </c>
       <c r="Y13" t="n">
-        <v>318.2838994630213</v>
+        <v>410.9088655939304</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550884</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312599</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3051.18793718504</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3051.18793718504</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>3051.18793718504</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2751.985177299522</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.328847378772</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445567</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>286.4385749083258</v>
+        <v>208.946937561677</v>
       </c>
       <c r="C16" t="n">
-        <v>286.4385749083258</v>
+        <v>208.946937561677</v>
       </c>
       <c r="D16" t="n">
-        <v>219.8750566752044</v>
+        <v>208.946937561677</v>
       </c>
       <c r="E16" t="n">
-        <v>219.8750566752044</v>
+        <v>208.946937561677</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752044</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
         <v>123.4172779208438</v>
@@ -5434,22 +5434,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5461,25 +5461,25 @@
         <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814507</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128935</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>988.1475398457733</v>
       </c>
       <c r="V16" t="n">
-        <v>924.984278484048</v>
+        <v>793.9644698127914</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614195</v>
+        <v>582.4303428901629</v>
       </c>
       <c r="X16" t="n">
-        <v>551.1661044905964</v>
+        <v>420.1462958193399</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.8503184534334</v>
+        <v>268.830509782177</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5537,10 +5537,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.426580900608</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222408</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5993,13 +5993,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,13 +6008,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388004</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>700.0178648958355</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>123.8559155359222</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>123.8559155359222</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.761294567897</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471387999</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662618</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508977</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174142</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420325</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.56169864057</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848359</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985356</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878063</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879676</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796857</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026484</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222128</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463654</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.898782305708</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.146589723076</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189319</v>
+        <v>91.97314162835477</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076154</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495896</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2844.723727844781</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170058</v>
+        <v>3192.911219976303</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038077</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038077</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908493</v>
+        <v>3325.162335939828</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397274</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394121</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154194</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.43530700416</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288499</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076154</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076154</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="K33" t="n">
-        <v>389.286694302988</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013012</v>
+        <v>551.1212215006583</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1178.89287112734</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1635.005296432109</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965108</v>
+        <v>365.6713676929701</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918648</v>
+        <v>309.3853606404847</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237445</v>
+        <v>267.671358424525</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123118</v>
+        <v>226.0316571652529</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546496</v>
+        <v>182.6248332597513</v>
       </c>
       <c r="G34" t="n">
-        <v>143.29939878346</v>
+        <v>128.2898902407223</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431881</v>
+        <v>86.7304500837417</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076154</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703945</v>
+        <v>143.5810516071511</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074069</v>
+        <v>337.0682132920761</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082771</v>
+        <v>501.1958531658759</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736115</v>
+        <v>799.139552079123</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831231</v>
+        <v>982.3291861103321</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872939</v>
+        <v>1256.686073727023</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649517</v>
+        <v>1376.562239503602</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746639</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308581</v>
+        <v>1370.002557387755</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420495</v>
+        <v>1281.10558445183</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518094</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689359</v>
+        <v>987.7859626250158</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395485</v>
+        <v>835.7257283273655</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300091</v>
+        <v>666.3144371400685</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012439</v>
+        <v>546.1532258045771</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584472</v>
+        <v>436.9602755027459</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6944,10 +6944,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,19 +7096,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7254,22 +7254,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>346.9752758473783</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446693</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,10 +7433,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>346.9752758473783</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="L42" t="n">
-        <v>830.5413617456916</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.313011372373</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,13 +7573,13 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
         <v>974.9038003296507</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,19 +7679,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567324</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879416</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296496</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321635</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>545.621910989689</v>
+        <v>667.9090757920141</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>305.2720051970412</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>375.8483333753183</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>561.0555281269397</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>277.7768138244338</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920141</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>305.2720051970412</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>375.8483333753183</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>419.0606576562834</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886029</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,19 +8453,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>393.9156246749224</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>153.277245266684</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,10 +8942,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9009,19 +9009,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,25 +9240,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>517.3131487114046</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9489,7 +9489,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>133.4455245943151</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>691.2645480167031</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10428,22 +10428,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046929</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>546.0917343741362</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>597.3159339866204</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10902,7 +10902,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10917,10 +10917,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>377.3304183063261</v>
+        <v>374.1267046741214</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715891</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>223.7926610107524</v>
+        <v>95.96652048091599</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>42.73919405888404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338897</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>48.95885578403477</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>95.9665204809171</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>278.5343549045818</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>52.99288961136099</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993877</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>17.10058652098833</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465761</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338906</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901691</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1028142.269528767</v>
+        <v>1026638.400494366</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1028142.269528767</v>
+        <v>1026638.400494366</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>925060.1914525466</v>
+        <v>925060.1914525464</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>925060.1914525463</v>
+        <v>925060.1914525466</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288531.4849493708</v>
+        <v>288531.484949371</v>
       </c>
       <c r="C2" t="n">
-        <v>288531.4849493709</v>
+        <v>288531.484949371</v>
       </c>
       <c r="D2" t="n">
         <v>288531.4849493708</v>
@@ -26326,34 +26326,34 @@
         <v>254974.4374790409</v>
       </c>
       <c r="G2" t="n">
+        <v>288531.4849493708</v>
+      </c>
+      <c r="H2" t="n">
+        <v>288531.4849493708</v>
+      </c>
+      <c r="I2" t="n">
         <v>288531.4849493707</v>
       </c>
-      <c r="H2" t="n">
-        <v>288531.4849493707</v>
-      </c>
-      <c r="I2" t="n">
-        <v>288531.4849493708</v>
-      </c>
       <c r="J2" t="n">
-        <v>288531.4849493704</v>
+        <v>288531.4849493703</v>
       </c>
       <c r="K2" t="n">
         <v>288531.4849493705</v>
       </c>
       <c r="L2" t="n">
+        <v>288531.484949371</v>
+      </c>
+      <c r="M2" t="n">
         <v>288531.4849493707</v>
       </c>
-      <c r="M2" t="n">
-        <v>288531.4849493709</v>
-      </c>
       <c r="N2" t="n">
-        <v>288531.4849493706</v>
+        <v>288531.4849493708</v>
       </c>
       <c r="O2" t="n">
         <v>288531.4849493708</v>
       </c>
       <c r="P2" t="n">
-        <v>288531.4849493707</v>
+        <v>288531.4849493708</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062219</v>
+        <v>22558.42953401369</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668201</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728578</v>
+        <v>62456.24177539691</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081124</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489513</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26430,10 +26430,10 @@
         <v>138605.9604845213</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
         <v>186364.8769761036</v>
@@ -26445,7 +26445,7 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761036</v>
@@ -26454,10 +26454,10 @@
         <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,34 +26482,34 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181912.3755314498</v>
+        <v>-177260.1559102748</v>
       </c>
       <c r="C6" t="n">
-        <v>292.5727604058338</v>
+        <v>-3401.498876219906</v>
       </c>
       <c r="D6" t="n">
-        <v>-7452.007943214761</v>
+        <v>-15188.29716660629</v>
       </c>
       <c r="E6" t="n">
-        <v>-48940.10417936544</v>
+        <v>-49149.835726055</v>
       </c>
       <c r="F6" t="n">
-        <v>63182.45729467919</v>
+        <v>62972.72574798957</v>
       </c>
       <c r="G6" t="n">
-        <v>-3428.486878934578</v>
+        <v>-3428.486878934324</v>
       </c>
       <c r="H6" t="n">
-        <v>43996.83865774752</v>
+        <v>43996.83865774766</v>
       </c>
       <c r="I6" t="n">
+        <v>43996.83865774743</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-162528.793784965</v>
+      </c>
+      <c r="K6" t="n">
+        <v>37757.07025496428</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-21474.35589012871</v>
+      </c>
+      <c r="M6" t="n">
+        <v>744.3141869362153</v>
+      </c>
+      <c r="N6" t="n">
+        <v>43996.83865774763</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16229.14461497645</v>
+      </c>
+      <c r="P6" t="n">
         <v>43996.8386577476</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-169045.0789395382</v>
-      </c>
-      <c r="K6" t="n">
-        <v>37757.07025496434</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-17425.5186796569</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1796.009198124571</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43996.83865774737</v>
-      </c>
-      <c r="O6" t="n">
-        <v>16229.14461497633</v>
-      </c>
-      <c r="P6" t="n">
-        <v>43996.83865774748</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,31 +26802,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095193</v>
+        <v>844.4391950293129</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660722</v>
+        <v>78.07030221924613</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551319</v>
+        <v>17.58004954287422</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485879</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773704</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240739</v>
+        <v>117.1268713042803</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485879</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>64.84662385225431</v>
       </c>
       <c r="C2" t="n">
-        <v>212.8430413820365</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>114.0770782788424</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>34.8993712897674</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>48.0035569769563</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>122.8093083222579</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>98.53482325933447</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>274.9843806182572</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>94.41567260241567</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>56.38966468158485</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27828,19 +27828,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>164.9407474921946</v>
       </c>
       <c r="X7" t="n">
-        <v>165.7080202947459</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.647598045689</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>118.1047735419955</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28020,13 +28020,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>26.15046864227571</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,10 +28065,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>218.4684493551001</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>35.71049010668751</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634528666</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>28.01250026485263</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,22 +29226,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>28.01250026485198</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901186</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.49509683159607</v>
       </c>
       <c r="P32" t="n">
-        <v>48.65992738832733</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000712</v>
+        <v>106.8683420224682</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861253526</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30168,13 +30168,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30402,28 +30402,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>5.636002634528808</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
@@ -30645,16 +30645,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M43" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,40 +30852,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634527927</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N2" t="n">
-        <v>396.5034196519049</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>155.7081677729448</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>286.2513980419849</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>468.6684060776278</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>128.0517622267066</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>155.7081677729448</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>286.2513980419849</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>326.6735356069715</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344363</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,19 +35173,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>244.7971333371383</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>66.19388044736931</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35662,10 +35662,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>424.9260266620927</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.16725411683999</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133864</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,22 +36522,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019308</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>176.3831193851011</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039237</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.00106726098173</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8774259673912</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851007</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751655996</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853757</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698323</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215744</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P31" t="n">
         <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.448038484469</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318508</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238017</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449823</v>
+        <v>645.9226305176213</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>487.9795421773824</v>
       </c>
       <c r="P32" t="n">
-        <v>400.364464894915</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111303</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.145010255381</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>460.7196215199696</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791211</v>
+        <v>76.79385455030915</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868811</v>
+        <v>195.4415774595201</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220912</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528631</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>203.754502987494</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102237</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,10 +37309,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>511.9438211324538</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37637,10 +37637,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>88.29766032133878</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7334829729927</v>
+        <v>284.5297693407881</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873199</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,7 +38190,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>156.7975262446462</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
